--- a/data/report.xlsx
+++ b/data/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FD179F-534A-4F66-A399-FA3F520DAED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3191CE-FB77-401C-8D51-8EC76DBC3399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>דרום</t>
   </si>
@@ -78,15 +78,6 @@
     <t>חניכים מחזור א</t>
   </si>
   <si>
-    <t>שיחה</t>
-  </si>
-  <si>
-    <t>מפגש</t>
-  </si>
-  <si>
-    <t>שיחת_הורים</t>
-  </si>
-  <si>
     <t>צדהים</t>
   </si>
   <si>
@@ -97,13 +88,43 @@
   </si>
   <si>
     <t>https://th01-s3.s3.eu-north-1.amazonaws.com/1e7f40ae5c9b4f329c413fc9f9056a51.jpg</t>
+  </si>
+  <si>
+    <t>היה מטורף פיצוץ מדהיייייםםם</t>
+  </si>
+  <si>
+    <t>ביקור בבסיס</t>
+  </si>
+  <si>
+    <t>מפגש קבוצתי</t>
+  </si>
+  <si>
+    <t>פגישה פיזית</t>
+  </si>
+  <si>
+    <t>נסיון כושל</t>
+  </si>
+  <si>
+    <t>5 הודעות</t>
+  </si>
+  <si>
+    <t>פגישה מקוונת</t>
+  </si>
+  <si>
+    <t>שיחה טלפונית</t>
+  </si>
+  <si>
+    <t>6 הודעות</t>
+  </si>
+  <si>
+    <t>7 הודעות</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -156,6 +177,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF067D17"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,6 +245,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -441,10 +471,10 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -522,8 +552,8 @@
       <c r="C2" s="7">
         <v>45293</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
+      <c r="D2" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="b">
         <v>1</v>
@@ -545,8 +575,8 @@
       <c r="C3" s="7">
         <v>45414</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="b">
         <v>1</v>
@@ -565,14 +595,14 @@
       <c r="C4" s="7">
         <v>45293</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -586,16 +616,16 @@
         <v>45414</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>10</v>
@@ -611,14 +641,14 @@
       <c r="C6" s="7">
         <v>45294</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -631,14 +661,14 @@
       <c r="C7" s="7">
         <v>45293</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
+      <c r="D7" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -651,14 +681,14 @@
       <c r="C8" s="7">
         <v>45414</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>11</v>
@@ -674,14 +704,14 @@
       <c r="C9" s="7">
         <v>45294</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="E9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -692,15 +722,18 @@
         <v>523301803</v>
       </c>
       <c r="C10" s="7">
-        <v>45293</v>
-      </c>
-      <c r="D10" s="8" t="s">
+        <v>44928</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -714,54 +747,236 @@
       <c r="C11" s="7">
         <v>45414</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="B12" s="6">
+        <v>523301801</v>
+      </c>
+      <c r="C12" s="7">
+        <v>45293</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="B13" s="6">
+        <v>523301802</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45414</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="B14" s="6">
+        <v>523301803</v>
+      </c>
+      <c r="C14" s="7">
+        <v>45293</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="B15" s="6">
+        <v>523301804</v>
+      </c>
+      <c r="C15" s="7">
+        <v>45048</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="6"/>
+      <c r="G15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="6"/>
+      <c r="A16" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="B16" s="6">
+        <v>523301805</v>
+      </c>
+      <c r="C16" s="7">
+        <v>45294</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="B17" s="6">
+        <v>523301806</v>
+      </c>
+      <c r="C17" s="7">
+        <v>45293</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="B18" s="6">
+        <v>523301807</v>
+      </c>
+      <c r="C18" s="7">
+        <v>45414</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="B19" s="6">
+        <v>523301802</v>
+      </c>
+      <c r="C19" s="7">
+        <v>45294</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="B20" s="6">
+        <v>523301803</v>
+      </c>
+      <c r="C20" s="7">
+        <v>45293</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="B21" s="6">
+        <v>523301804</v>
+      </c>
+      <c r="C21" s="7">
+        <v>45048</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="eldad8797@gmail.com" xr:uid="{EBD37F19-695E-46A7-A129-651B32CF579A}"/>
-    <hyperlink ref="D7" r:id="rId2" display="eldad8797@gmail.com" xr:uid="{8E692970-D9C2-4571-8AE8-38899E98D221}"/>
-    <hyperlink ref="D10" r:id="rId3" display="eldad8797@gmail.com" xr:uid="{EDEBD4E1-B551-48B1-97A5-D389245EB8B5}"/>
-    <hyperlink ref="D3" r:id="rId4" display="eldad8797@gmail.com" xr:uid="{A710D41C-737E-4619-9BB8-10E305133F0D}"/>
-    <hyperlink ref="D2" r:id="rId5" display="eldad8797@gmail.com" xr:uid="{F296669E-423F-4CE6-B984-07F791D57A59}"/>
-    <hyperlink ref="G5" r:id="rId6" xr:uid="{27534653-348C-496C-9067-ADE2F000FE2C}"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{27534653-348C-496C-9067-ADE2F000FE2C}"/>
+    <hyperlink ref="G15" r:id="rId2" xr:uid="{B1A44A2C-A394-4FD5-8BE2-4DACAD922265}"/>
+    <hyperlink ref="G10" r:id="rId3" xr:uid="{A717D9DA-330A-48B4-AA87-6C5E893692FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>